--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -57,231 +57,74 @@
     <t>3@3</t>
   </si>
   <si>
-    <r>
-      <t>Person person1=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Person().</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>setEmail(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"2@2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>).setFirstName(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Roman"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>).setPassword(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Person person2=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Person().setEmail(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"3@3"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>).setFirstName(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"Alex"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>).setPassword(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"456"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
     <t>r.role</t>
+  </si>
+  <si>
+    <t>img.name</t>
+  </si>
+  <si>
+    <t>firstImage</t>
+  </si>
+  <si>
+    <t>secondImage</t>
+  </si>
+  <si>
+    <t>thirdImage</t>
+  </si>
+  <si>
+    <t>с попс</t>
+  </si>
+  <si>
+    <t>[7, 3@3, 456, ADMIN, firstImage]</t>
+  </si>
+  <si>
+    <t>[7, 3@3, 456, PERSON, firstImage]</t>
+  </si>
+  <si>
+    <t>[7, 3@3, 456, ADMIN, secondImage]</t>
+  </si>
+  <si>
+    <t>[7, 3@3, 456, PERSON, secondImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, ADMIN, firstImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, PERSON, firstImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, MODERATOR, firstImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, ADMIN, secondImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, PERSON, secondImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, MODERATOR, secondImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, ADMIN, thirdImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, PERSON, thirdImage]</t>
+  </si>
+  <si>
+    <t>[8, 2@2, 123, MODERATOR, thirdImage]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF008000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000080"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -323,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -400,26 +243,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -701,9 +554,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -714,134 +567,305 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="2">
         <v>123</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>123</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D5" s="2">
         <v>123</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>456</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D7" s="2">
         <v>123</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D8" s="2">
         <v>456</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>123</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D10" s="2">
         <v>456</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>456</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>